--- a/images/pulseNet/grid.xlsx
+++ b/images/pulseNet/grid.xlsx
@@ -76,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -157,7 +169,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,7 +222,21 @@
     <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
@@ -496,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K3:AB12"/>
+  <dimension ref="K3:BL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -507,8 +533,8 @@
     <col min="1" max="16384" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="11:28" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="11:64" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K4" s="2">
         <v>0</v>
       </c>
@@ -537,28 +563,124 @@
         <v>0</v>
       </c>
       <c r="V4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18">
         <v>0</v>
       </c>
       <c r="X4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="18">
         <v>0</v>
       </c>
       <c r="Z4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="18">
         <v>0</v>
       </c>
       <c r="AB4" s="18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="19">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="19">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="19">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="19">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K5" s="4">
         <v>2</v>
       </c>
@@ -584,31 +706,127 @@
         <v>13</v>
       </c>
       <c r="U5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="18">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="19">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="2">
         <v>20</v>
       </c>
@@ -637,28 +855,124 @@
         <v>0</v>
       </c>
       <c r="V6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="18">
         <v>0</v>
       </c>
       <c r="X6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="18">
         <v>0</v>
       </c>
       <c r="Z6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="18">
         <v>0</v>
       </c>
       <c r="AB6" s="18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="19">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="BJ6" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="BK6" s="19">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="19">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="4">
         <v>22</v>
       </c>
@@ -684,31 +998,127 @@
         <v>33</v>
       </c>
       <c r="U7" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="18">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="21">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="BJ7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="BK7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="19">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K8" s="10">
         <v>0</v>
       </c>
@@ -737,28 +1147,124 @@
         <v>0</v>
       </c>
       <c r="V8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="18">
         <v>0</v>
       </c>
       <c r="X8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="18">
         <v>0</v>
       </c>
       <c r="Z8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="18">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K9" s="12">
         <v>2</v>
       </c>
@@ -784,31 +1290,127 @@
         <v>13</v>
       </c>
       <c r="U9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="18">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K10" s="10">
         <v>20</v>
       </c>
@@ -837,28 +1439,124 @@
         <v>0</v>
       </c>
       <c r="V10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="18">
         <v>0</v>
       </c>
       <c r="X10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="18">
         <v>0</v>
       </c>
       <c r="Z10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="18">
         <v>0</v>
       </c>
       <c r="AB10" s="18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="11:28" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="11:64" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K11" s="12">
         <v>22</v>
       </c>
@@ -884,31 +1582,207 @@
         <v>33</v>
       </c>
       <c r="U11" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W11" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="18">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="11:28" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="11:64" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="11:64" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="11:64" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="11:64" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="11:64" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="21:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="21:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="21:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="21:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
